--- a/medicine/Sexualité et sexologie/Katoptronophilie/Katoptronophilie.xlsx
+++ b/medicine/Sexualité et sexologie/Katoptronophilie/Katoptronophilie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La katoptronophilie est une paraphilie liée aux miroirs (le mot grec pour miroir étant katoptron).  
 Ce trouble inclut une volonté de faire l'amour devant des miroirs, de se masturber devant des miroirs, ou encore de réaliser des soirées de groupe à vocation sexuelle devant des miroirs. 
